--- a/Género/Violencia contra Mujer/Sondeo Injuv/Sondeo_acuerdo_desacuerdo_temas_Realacion_parejas_2018.xlsx
+++ b/Género/Violencia contra Mujer/Sondeo Injuv/Sondeo_acuerdo_desacuerdo_temas_Realacion_parejas_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\Sondeo Injuv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F998B81F-73DD-4752-9F57-CD76047B730A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4E2A9-54B8-49DA-AEA0-05D6AD4D5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7A1DA7AE-C4F1-45AC-A1CC-285EE1C48FB9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Pregunta Sondeo</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Nivel Socioeconomico Bajo</t>
-  </si>
-  <si>
-    <t>Columna1</t>
   </si>
   <si>
     <t>62*</t>
@@ -252,9 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -264,16 +258,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -304,17 +298,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B769321A-10FC-46DC-94E7-61AFFB97A43E}" name="Sondeo_temas_Estado_Juventud_2020" displayName="Sondeo_temas_Estado_Juventud_2020" ref="A2:H12" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A2:H12" xr:uid="{B769321A-10FC-46DC-94E7-61AFFB97A43E}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B769321A-10FC-46DC-94E7-61AFFB97A43E}" name="Sondeo_temas_Estado_Juventud_2020" displayName="Sondeo_temas_Estado_Juventud_2020" ref="A2:G12" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A2:G12" xr:uid="{B769321A-10FC-46DC-94E7-61AFFB97A43E}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F77081A5-42A0-4E87-B571-0478A3EFC0BA}" name="Pregunta Sondeo"/>
     <tableColumn id="2" xr3:uid="{1B80E8E7-301A-46B6-BEA9-D968A1DF0357}" name="Porcentaje de acuerdo"/>
-    <tableColumn id="4" xr3:uid="{0D608A60-77E5-4300-B176-B8929A4CF75C}" name="% respuesta Hombre " dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{84D318AD-054D-45EC-B4D1-D95D4E996E39}" name="% Respuesta Mujer" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2486C5B4-BAD4-41ED-A1E7-DC187C9877A7}" name="Nivel Socioeconomico Alto" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{BC6814D0-AA44-4B5C-9B45-0A6D3BE53BD3}" name="Nivel Socioeconomico Medio" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{ED799F27-80E5-4A55-9705-7BB311C17491}" name="Nivel Socioeconomico Bajo" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{8DF80BD1-E70D-4449-8302-C460E0E2436A}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{0D608A60-77E5-4300-B176-B8929A4CF75C}" name="% respuesta Hombre " dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{84D318AD-054D-45EC-B4D1-D95D4E996E39}" name="% Respuesta Mujer" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2486C5B4-BAD4-41ED-A1E7-DC187C9877A7}" name="Nivel Socioeconomico Alto" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{BC6814D0-AA44-4B5C-9B45-0A6D3BE53BD3}" name="Nivel Socioeconomico Medio" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{ED799F27-80E5-4A55-9705-7BB311C17491}" name="Nivel Socioeconomico Bajo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -617,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C38F8C5-7EE2-4D62-8F0D-6BA2450EBB43}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,15 +627,15 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -664,253 +657,240 @@
       <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>42</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>48</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>41</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>37</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>31</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>39</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
